--- a/PasswordRecords.xlsx
+++ b/PasswordRecords.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,19 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7Ra$ta"Teekha</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Whatsapp</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/PasswordRecords.xlsx
+++ b/PasswordRecords.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,55 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LambaGulaab1@</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PRAN website</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BhutiyaD0n3,</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8 ball pool</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4Hira/Garib</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Shambhoo</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SundarDarwaza:6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bholaaa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/PasswordRecords.xlsx
+++ b/PasswordRecords.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,18 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>5Paanwala-Hara</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Njolssss</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
